--- a/applications/Brazil/NI_projections.xlsx
+++ b/applications/Brazil/NI_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>56606</v>
+        <v>43819</v>
       </c>
       <c r="B4">
-        <v>7694</v>
+        <v>7949</v>
       </c>
       <c r="C4">
-        <v>112967</v>
+        <v>46315</v>
       </c>
       <c r="D4">
-        <v>4.7172442430464</v>
+        <v>3.651621092140373</v>
       </c>
       <c r="E4">
-        <v>0.6412281968298668</v>
+        <v>0.6624621482598401</v>
       </c>
       <c r="F4">
-        <v>9.413979350323199</v>
+        <v>3.859650691720534</v>
       </c>
       <c r="G4">
-        <v>0.3563586209245867</v>
+        <v>0.2532260257314133</v>
       </c>
       <c r="H4">
-        <v>0.07946346158080002</v>
+        <v>0.07494766662997333</v>
       </c>
       <c r="I4">
-        <v>0.4638247396078933</v>
+        <v>0.22811521316864</v>
       </c>
       <c r="J4">
-        <v>0.2505049128130432</v>
+        <v>0.2194322041714432</v>
       </c>
       <c r="K4">
-        <v>0.123289766908096</v>
+        <v>0.1494937248756479</v>
       </c>
       <c r="L4">
-        <v>0.2963668250929023</v>
+        <v>0.2189282773549824</v>
       </c>
       <c r="M4">
-        <v>67632</v>
+        <v>51433</v>
       </c>
       <c r="N4">
-        <v>7037</v>
+        <v>7570</v>
       </c>
       <c r="O4">
-        <v>145487</v>
+        <v>122848</v>
       </c>
       <c r="P4">
-        <v>5.898201217771757</v>
+        <v>4.485457804328482</v>
       </c>
       <c r="Q4">
-        <v>0.6137558446651535</v>
+        <v>0.6601804948741952</v>
       </c>
       <c r="R4">
-        <v>12.68788958650225</v>
+        <v>10.71351860878884</v>
       </c>
       <c r="S4">
-        <v>0.3667604707208931</v>
+        <v>0.3360088773870139</v>
       </c>
       <c r="T4">
-        <v>0.0753255902208</v>
+        <v>0.07009107148085582</v>
       </c>
       <c r="U4">
-        <v>0.6498119375062326</v>
+        <v>0.5365403292529116</v>
       </c>
       <c r="V4">
-        <v>0.3284293680287744</v>
+        <v>0.3030822041714432</v>
       </c>
       <c r="W4">
-        <v>0.1326723974965119</v>
+        <v>0.1600382520029951</v>
       </c>
       <c r="X4">
-        <v>0.4706979295117311</v>
+        <v>0.3850826323743871</v>
       </c>
     </row>
   </sheetData>
